--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-2 Mar 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8F5FB4-B9C3-49EA-BEBD-94A5115BB1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B397A5D-9AC8-4ADE-99D4-42FEC685F501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
   <si>
     <t>Concepts</t>
   </si>
@@ -312,6 +312,81 @@
   </si>
   <si>
     <t>java installation,helloworld example</t>
+  </si>
+  <si>
+    <t>Day-3</t>
+  </si>
+  <si>
+    <t>Day-4</t>
+  </si>
+  <si>
+    <t>Day-5</t>
+  </si>
+  <si>
+    <t>Day-6</t>
+  </si>
+  <si>
+    <t>Day-7</t>
+  </si>
+  <si>
+    <t>Day-8</t>
+  </si>
+  <si>
+    <t>Day-9</t>
+  </si>
+  <si>
+    <t>Day-10</t>
+  </si>
+  <si>
+    <t>Day-11</t>
+  </si>
+  <si>
+    <t>Day-12</t>
+  </si>
+  <si>
+    <t>Day-13</t>
+  </si>
+  <si>
+    <t>Day-14</t>
+  </si>
+  <si>
+    <t>Day-15</t>
+  </si>
+  <si>
+    <t>Day-16</t>
+  </si>
+  <si>
+    <t>Day-17</t>
+  </si>
+  <si>
+    <t>Day-18</t>
+  </si>
+  <si>
+    <t>Day-19</t>
+  </si>
+  <si>
+    <t>Day-20</t>
+  </si>
+  <si>
+    <t>Day-21</t>
+  </si>
+  <si>
+    <t>Day-22</t>
+  </si>
+  <si>
+    <t>Day-23</t>
+  </si>
+  <si>
+    <t>Day-24</t>
+  </si>
+  <si>
+    <t>revision of installation and compilation execution</t>
+  </si>
+  <si>
+    <t>Variables and datatypes</t>
+  </si>
+  <si>
+    <t>go throuth with language fundamentals</t>
   </si>
 </sst>
 </file>
@@ -898,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,24 +1053,46 @@
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="39"/>
+      <c r="D7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="10">
+        <v>45375</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="H7" s="33"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="33"/>
+      <c r="D8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45377</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="10">
+        <v>45378</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="39"/>
       <c r="H9" s="33"/>
@@ -1004,15 +1101,21 @@
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="10">
+        <v>45379</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="39"/>
       <c r="H10" s="33"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="39"/>
@@ -1020,7 +1123,9 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
       <c r="G12" s="39"/>
@@ -1028,7 +1133,9 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="39"/>
@@ -1036,7 +1143,9 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="39"/>
@@ -1044,7 +1153,9 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="33"/>
@@ -1052,7 +1163,9 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="39"/>
@@ -1060,7 +1173,9 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="39"/>
@@ -1068,7 +1183,9 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="40"/>
       <c r="G18" s="39"/>
@@ -1077,7 +1194,9 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="39"/>
@@ -1085,7 +1204,9 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="39"/>
@@ -1093,7 +1214,9 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="39"/>
@@ -1101,7 +1224,9 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="39"/>
@@ -1109,7 +1234,9 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="39"/>
@@ -1117,7 +1244,9 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="39"/>
@@ -1128,7 +1257,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="39"/>
@@ -1137,7 +1268,9 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="39"/>
@@ -1146,7 +1279,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="39"/>
@@ -1156,7 +1291,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="39"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-2 Mar 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B397A5D-9AC8-4ADE-99D4-42FEC685F501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354A2CCC-BC95-4F74-9971-95555456EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="121">
   <si>
     <t>Concepts</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>go throuth with language fundamentals</t>
+  </si>
+  <si>
+    <t>complete assignment</t>
   </si>
 </sst>
 </file>
@@ -974,7 +977,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,9 +1096,15 @@
       <c r="E9" s="10">
         <v>45378</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="33"/>
+      <c r="F9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>120</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>21</v>
       </c>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-2 Mar 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354A2CCC-BC95-4F74-9971-95555456EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF705E-596A-4F35-A872-440421606A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t>Concepts</t>
   </si>
@@ -65,129 +65,36 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Koppisetti Charan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durga Pavan Kumar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y Subha Prasanna </t>
-  </si>
-  <si>
     <t>Rufiya</t>
   </si>
   <si>
-    <t>T Varsha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soma Sekhar </t>
-  </si>
-  <si>
-    <t>RajVardhan</t>
-  </si>
-  <si>
-    <t>ACHANTA SATISH</t>
-  </si>
-  <si>
     <t>Venkata Krishna Sai</t>
   </si>
   <si>
     <t>https://www.eclipse.org/downloads/packages/release/2022-03/r</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>https://github.com/KOPPISETTICHARANSAI/JAVA-CLASSES.git</t>
-  </si>
-  <si>
-    <t>https://github.com/vvksai13/odigos-assignment-krishna-sai.git</t>
-  </si>
-  <si>
-    <t>https://github.com/Rufiya09/Odigos-Assignments.git</t>
-  </si>
-  <si>
-    <t>https://github.com/SomaSekhar9112/Odigos_assignment.git</t>
-  </si>
-  <si>
-    <t>https://github.com/Durgapavankumarrithub/java-.git</t>
-  </si>
-  <si>
-    <t>https://github.com/prasannasubhayasarapu/odigos.prasanna.git</t>
-  </si>
-  <si>
     <t>Git Links</t>
   </si>
   <si>
     <t>Trainee Name</t>
   </si>
   <si>
-    <t>https://github.com/varshatigireddy/odigos-assignment.git</t>
-  </si>
-  <si>
-    <t>Assignments Status 21-11-2023</t>
-  </si>
-  <si>
-    <t>done few are pending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Uploaded/not DONE </t>
-  </si>
-  <si>
-    <t>https://github.com/7209vardhan?tab=repositories</t>
-  </si>
-  <si>
-    <t>NOT DONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONE </t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>https://www.w3schools.com/java/java_ref_string.asp</t>
   </si>
   <si>
     <t>MCQ Test Scores</t>
   </si>
   <si>
-    <t>05 out of 12</t>
-  </si>
-  <si>
-    <t>19/30</t>
-  </si>
-  <si>
     <t>Mock Interview</t>
   </si>
   <si>
     <t>SNO</t>
   </si>
   <si>
-    <t>17/30</t>
-  </si>
-  <si>
-    <t>22/30</t>
-  </si>
-  <si>
-    <t>15/30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shyam Kumar </t>
   </si>
   <si>
-    <t>https://github.com/satishachanta/satish-java</t>
-  </si>
-  <si>
-    <t>14/30</t>
-  </si>
-  <si>
-    <t>20/30</t>
-  </si>
-  <si>
-    <t>16/30</t>
-  </si>
-  <si>
     <t>Participant Name</t>
   </si>
   <si>
@@ -278,24 +185,6 @@
     <t>Case Study-1</t>
   </si>
   <si>
-    <t>ProductManagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11th </t>
-  </si>
-  <si>
-    <t>13th</t>
-  </si>
-  <si>
-    <t>15th</t>
-  </si>
-  <si>
-    <t>18th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13th </t>
-  </si>
-  <si>
     <t>FSD Intro,java Intro</t>
   </si>
   <si>
@@ -389,7 +278,91 @@
     <t>go throuth with language fundamentals</t>
   </si>
   <si>
-    <t>complete assignment</t>
+    <t>Alekhya</t>
+  </si>
+  <si>
+    <t>Prasad V</t>
+  </si>
+  <si>
+    <t>Raja yadav</t>
+  </si>
+  <si>
+    <t>Srinivas</t>
+  </si>
+  <si>
+    <t>Yaswanth Pemmadi</t>
+  </si>
+  <si>
+    <t>https://github.com/prasad-115/assignment-1.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Yaswanth2391/Java-Full-Stack.git</t>
+  </si>
+  <si>
+    <t>Dakshayani Garaga</t>
+  </si>
+  <si>
+    <t>G Kavya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package and Import keywords </t>
+  </si>
+  <si>
+    <t>swathi</t>
+  </si>
+  <si>
+    <t>Rahul Varma</t>
+  </si>
+  <si>
+    <t>https://github.com/Rahul-varma-682</t>
+  </si>
+  <si>
+    <t>https://github.com/Adurthy-geethikasreealekhya/java.git</t>
+  </si>
+  <si>
+    <t>Eclipse Usage</t>
+  </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>Lokesh</t>
+  </si>
+  <si>
+    <t>https://github.com/srinivassunkaragithub</t>
+  </si>
+  <si>
+    <t>https://github.com/Satyasaiswathi6300/swathi_2429.git</t>
+  </si>
+  <si>
+    <t>https://github.com/aryanvanapalli</t>
+  </si>
+  <si>
+    <t>https://github.com/kavyagavireddy</t>
+  </si>
+  <si>
+    <t>5:30pm-6:30pm</t>
+  </si>
+  <si>
+    <t>complete assignment -1</t>
+  </si>
+  <si>
+    <t>https://github.com/dakshayanigithub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variables,instance and static </t>
+  </si>
+  <si>
+    <t>6:00pm-7:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methods </t>
+  </si>
+  <si>
+    <t>Assignment-2 on methods scanner</t>
+  </si>
+  <si>
+    <t>6:00pm-7:20pm</t>
   </si>
 </sst>
 </file>
@@ -468,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -624,13 +603,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,13 +619,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,9 +648,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -693,6 +656,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -977,7 +959,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,241 +1007,265 @@
         <v>45373</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="28"/>
       <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="9" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E6" s="10">
         <v>45374</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>94</v>
+        <v>56</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E7" s="10">
         <v>45375</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="33"/>
+        <v>80</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="28"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="9" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10">
         <v>45377</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>119</v>
+        <v>81</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E9" s="10">
         <v>45378</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>120</v>
+        <v>81</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E10" s="10">
         <v>45379</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="33"/>
+      <c r="F10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="28"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="E11" s="10">
+        <v>45383</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="28"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="33"/>
+        <v>63</v>
+      </c>
+      <c r="E12" s="10">
+        <v>45384</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="28"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="33"/>
+        <v>64</v>
+      </c>
+      <c r="E13" s="10">
+        <v>45385</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="9" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="9" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="9" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="9" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="D19" s="9" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="9" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="9" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="9" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="9" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="3"/>
       <c r="M24" s="5" t="s">
         <v>5</v>
@@ -1267,78 +1273,78 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="9" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="3"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="9" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="3"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="9" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="3"/>
       <c r="M32" t="s">
         <v>6</v>
@@ -1348,992 +1354,992 @@
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="33"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="28"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="28"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="28"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="33"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="28"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="33"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="28"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="33"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="28"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="33"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="28"/>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="33"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="28"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="33"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="28"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="33"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="28"/>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="33"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="28"/>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="33"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="28"/>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="33"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="28"/>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="33"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="28"/>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="33"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="28"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="33"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="28"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="33"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="28"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D69" s="9"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D70" s="9"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D71" s="9"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D72" s="9"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="33"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="28"/>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="33"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="28"/>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="33"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="28"/>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="33"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="28"/>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="33"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="28"/>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="33"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="28"/>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="33"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="28"/>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="33"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="28"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="33"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="28"/>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D86" s="9"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D87" s="9"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D88" s="9"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D89" s="9"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D90" s="9"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D91" s="9"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D92" s="9"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D93" s="9"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D94" s="9"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D95" s="9"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D96" s="9"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D97" s="9"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D98" s="9"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D99" s="9"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D100" s="9"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D101" s="9"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D102" s="9"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D103" s="9"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D104" s="9"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D105" s="9"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D106" s="9"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
       <c r="I106" s="3"/>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D107" s="9"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D108" s="9"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D109" s="9"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D110" s="9"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D111" s="9"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
       <c r="I111" s="3"/>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D112" s="9"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D113" s="9"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D114" s="9"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
       <c r="I114" s="3"/>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D115" s="9"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
       <c r="I115" s="3"/>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D116" s="9"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
       <c r="I116" s="3"/>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D117" s="9"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D118" s="9"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D119" s="9"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
       <c r="I119" s="3"/>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D120" s="9"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
       <c r="I120" s="3"/>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D121" s="9"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D122" s="9"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D123" s="9"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D124" s="9"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28"/>
       <c r="I124" s="3"/>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D125" s="9"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
       <c r="I125" s="3"/>
     </row>
     <row r="126" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D126" s="42"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D127" s="42"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D128" s="42"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D129" s="42"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D130" s="42"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D131" s="42"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D132" s="42"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D133" s="42"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D134" s="42"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="33"/>
-      <c r="H134" s="33"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D135" s="42"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D136" s="42"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D137" s="42"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D138" s="42"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D139" s="42"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
       <c r="I139" s="3"/>
     </row>
     <row r="140" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D140" s="42"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D141" s="42"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="28"/>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D142" s="42"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D143" s="42"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D144" s="42"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="28"/>
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D145" s="42"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="33"/>
-      <c r="H145" s="33"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="28"/>
       <c r="I145" s="3"/>
     </row>
     <row r="146" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D146" s="42"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="28"/>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D147" s="42"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="28"/>
       <c r="I147" s="3"/>
     </row>
     <row r="148" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D148" s="42"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="28"/>
       <c r="I148" s="3"/>
     </row>
     <row r="149" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D149" s="42"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="28"/>
       <c r="I149" s="3"/>
     </row>
     <row r="150" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D150" s="42"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="33"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
       <c r="I150" s="3"/>
     </row>
     <row r="151" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D151" s="42"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
       <c r="I151" s="3"/>
     </row>
     <row r="152" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D152" s="42"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
       <c r="I152" s="3"/>
     </row>
     <row r="153" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D153" s="42"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
+      <c r="D153" s="36"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
       <c r="I153" s="3"/>
     </row>
     <row r="154" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D154" s="42"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
       <c r="I154" s="3"/>
     </row>
     <row r="155" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D155" s="42"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="28"/>
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D156" s="42"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
       <c r="I156" s="3"/>
     </row>
     <row r="157" spans="4:9" x14ac:dyDescent="0.3">
@@ -2448,302 +2454,237 @@
     <hyperlink ref="I5" r:id="rId2" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>
     <hyperlink ref="I27" r:id="rId3" xr:uid="{DA931C00-4127-445C-A5B3-425638471C29}"/>
     <hyperlink ref="I6" r:id="rId4" xr:uid="{D72C5436-2E84-4565-9780-921668693B3C}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{60D84BF8-42F9-4BED-A3F0-F972DC340F84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D3:K15"/>
+  <dimension ref="D3:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J14:K18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="67.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="49.77734375" customWidth="1"/>
     <col min="8" max="8" width="29.21875" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="J3" s="37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="20">
-        <v>45272</v>
-      </c>
-      <c r="I4" s="21">
-        <v>45278</v>
-      </c>
-      <c r="J4" s="38">
-        <v>45357</v>
-      </c>
-    </row>
-    <row r="5" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G4" s="13"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="13" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="13" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D6" s="13">
         <v>1</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D7" s="13">
         <v>2</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="37" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H7" s="14"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D8" s="13">
         <v>3</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="35">
-        <v>0.6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D9" s="13">
         <v>4</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="35">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D10" s="13">
+        <v>86</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="14">
         <v>5</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="35">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D11" s="13">
+        <v>87</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="14">
         <v>6</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="35">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D12" s="19">
+      <c r="E11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="14">
         <v>7</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D13" s="13">
+      <c r="E12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="14">
         <v>8</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D14" s="13">
+        <v>93</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="14">
         <v>9</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="35">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D15" s="13">
+        <v>94</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="14">
         <v>10</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="36"/>
+        <v>98</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D16" s="14">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{6DEFDA65-6FBA-49A5-921E-D8A27984A55C}"/>
-    <hyperlink ref="G14" r:id="rId2" xr:uid="{80C327E7-E7CD-4424-8474-D7F1398C5D04}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{25A8F732-3BA3-4C49-B649-96513759DF33}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{E4496172-4595-45F7-9F32-C9C371854CEA}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{8832B971-6092-42CE-8B7C-D5482EDC92AF}"/>
-    <hyperlink ref="G11" r:id="rId6" xr:uid="{B7AC1514-F5A7-4931-B67A-B42CA31F3908}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{3151D5C8-582B-4268-8FDB-1662FC47D7A3}"/>
-    <hyperlink ref="G12" r:id="rId8" xr:uid="{4CB52882-0397-47FE-9A31-737ABC7DD473}"/>
-    <hyperlink ref="G13" r:id="rId9" xr:uid="{88D1AE7E-D8AA-49BE-B622-16677C461BC7}"/>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{C9ECEEAB-64C6-4C49-97FA-5428B3D21474}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{90A60168-0D84-4AAF-BB0F-CCF7AAE3A94D}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{A102712F-F54D-4676-AD5D-F373869C5D81}"/>
+    <hyperlink ref="G13" r:id="rId4" xr:uid="{41CB41EC-AA08-4944-A020-A2DEAEF756AD}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{16F921D6-5A6B-4066-984C-9EC2393538C3}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{51B48687-88C0-4D19-85DA-DBFAEB8904EC}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{2BF07192-3F6D-497F-B45F-5F9B8341D428}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{90CB7BC4-9217-4681-9304-C0DC968A4BD8}"/>
+    <hyperlink ref="G7" r:id="rId9" xr:uid="{89CBECDF-288D-4F5C-9966-A4E17BACA3C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2770,309 +2711,309 @@
   </cols>
   <sheetData>
     <row r="8" spans="5:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="23">
+        <v>9</v>
+      </c>
+      <c r="H9" s="23">
+        <v>7</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="23">
+        <v>6</v>
+      </c>
+      <c r="H10" s="23">
+        <v>5</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="23">
+        <v>3</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="23">
+        <v>9</v>
+      </c>
+      <c r="H11" s="23">
+        <v>8</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E12" s="23">
+        <v>4</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E13" s="23">
+        <v>5</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E14" s="23">
+        <v>6</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="E15" s="23">
+        <v>7</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="23">
+        <v>10</v>
+      </c>
+      <c r="H15" s="23">
+        <v>9</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="28">
+      <c r="K15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E16" s="23">
+        <v>8</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E17" s="23">
         <v>9</v>
       </c>
-      <c r="H9" s="28">
-        <v>7</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="28">
-        <v>2</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="28">
-        <v>6</v>
-      </c>
-      <c r="H10" s="28">
-        <v>5</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="5:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="28">
-        <v>3</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="28">
-        <v>9</v>
-      </c>
-      <c r="H11" s="28">
-        <v>8</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E12" s="28">
-        <v>4</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="28" t="s">
+      <c r="F17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="I17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="J17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="K17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="L17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E13" s="28">
-        <v>5</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E14" s="28">
-        <v>6</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="E15" s="28">
-        <v>7</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="28">
-        <v>10</v>
-      </c>
-      <c r="H15" s="28">
-        <v>9</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E16" s="28">
-        <v>8</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E17" s="28">
-        <v>9</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-2 Mar 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF705E-596A-4F35-A872-440421606A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB03B87-FE96-46A7-8DC6-402120012460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>Concepts</t>
   </si>
@@ -65,12 +65,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Rufiya</t>
-  </si>
-  <si>
-    <t>Venkata Krishna Sai</t>
-  </si>
-  <si>
     <t>https://www.eclipse.org/downloads/packages/release/2022-03/r</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Trainee Name</t>
   </si>
   <si>
-    <t>https://www.w3schools.com/java/java_ref_string.asp</t>
-  </si>
-  <si>
     <t>MCQ Test Scores</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>SNO</t>
   </si>
   <si>
-    <t xml:space="preserve">Shyam Kumar </t>
-  </si>
-  <si>
     <t>Participant Name</t>
   </si>
   <si>
@@ -113,72 +101,6 @@
     <t>Communication and interaction</t>
   </si>
   <si>
-    <t>Prasanna</t>
-  </si>
-  <si>
-    <t>need to improve</t>
-  </si>
-  <si>
-    <t>technically average need to improve a lot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">good but need to improve </t>
-  </si>
-  <si>
-    <t>all done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">communication wise okay </t>
-  </si>
-  <si>
-    <t>technically very low need to improve</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>2 assignments pending</t>
-  </si>
-  <si>
-    <t>DurgaPavanKumar</t>
-  </si>
-  <si>
-    <t>Soma Sekhar</t>
-  </si>
-  <si>
-    <t>Satish Achanta</t>
-  </si>
-  <si>
-    <t>Varsha</t>
-  </si>
-  <si>
-    <t>AWESOME</t>
-  </si>
-  <si>
-    <t>awesome in communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technically good </t>
-  </si>
-  <si>
-    <t>few assignments pending</t>
-  </si>
-  <si>
-    <t>Irregular</t>
-  </si>
-  <si>
-    <t>need to improve in communication</t>
-  </si>
-  <si>
-    <t>good at technical but can improve</t>
-  </si>
-  <si>
-    <t>above average</t>
-  </si>
-  <si>
     <t>Assignment Status</t>
   </si>
   <si>
@@ -363,6 +285,51 @@
   </si>
   <si>
     <t>6:00pm-7:20pm</t>
+  </si>
+  <si>
+    <t>Flow control statements</t>
+  </si>
+  <si>
+    <t>6:00pm -7:00pm</t>
+  </si>
+  <si>
+    <t>https://github.com/RAJAYADAV22</t>
+  </si>
+  <si>
+    <t>JVM Achitecture,JDK,JRE</t>
+  </si>
+  <si>
+    <t>Scanner class,arrays</t>
+  </si>
+  <si>
+    <t>Arrays Assignment</t>
+  </si>
+  <si>
+    <t>laptop issue</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Arrays,String ,StringBuffer,StringBuilder</t>
+  </si>
+  <si>
+    <t>String,StringBuffer,StringBuilder</t>
+  </si>
+  <si>
+    <t>String methods assignments</t>
+  </si>
+  <si>
+    <t>arrays pending</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>pending with upload</t>
+  </si>
+  <si>
+    <t>pending with few</t>
   </si>
 </sst>
 </file>
@@ -441,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,7 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -598,9 +571,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,13 +636,20 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -958,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,265 +984,305 @@
         <v>45373</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="27"/>
       <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10">
         <v>45374</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E7" s="10">
         <v>45375</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="27"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="9" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E8" s="10">
         <v>45377</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>82</v>
+        <v>55</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E9" s="10">
         <v>45378</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>105</v>
+        <v>55</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>79</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E10" s="10">
         <v>45379</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="27"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="9" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E11" s="10">
         <v>45383</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="27"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="9" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E12" s="10">
         <v>45384</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="28"/>
+        <v>81</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="27"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="9" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E13" s="10">
         <v>45385</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>110</v>
+        <v>83</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>84</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="E14" s="10">
+        <v>45386</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="27"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="10">
+        <v>45387</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="27"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="E16" s="10">
+        <v>45390</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="27"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="28"/>
+        <v>42</v>
+      </c>
+      <c r="E17" s="10">
+        <v>45392</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>91</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="E18" s="10">
+        <v>45393</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="27"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="E19" s="10">
+        <v>45394</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>96</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="9" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="28"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="9" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="9" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="28"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="9" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="28"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="3"/>
       <c r="M24" s="5" t="s">
         <v>5</v>
@@ -1273,78 +1290,76 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="9" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="28"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="3"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="9" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="28"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="3"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="9" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="28"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="28"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="28"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="28"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="28"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="3"/>
       <c r="M32" t="s">
         <v>6</v>
@@ -1354,992 +1369,992 @@
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="28"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="28"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="28"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="28"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="28"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="28"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="28"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="28"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="28"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="28"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="28"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="28"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="28"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="28"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="27"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="28"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="27"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="28"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="27"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="28"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="27"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="28"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="28"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="28"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="28"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="27"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="28"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="27"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="28"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="27"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="28"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="27"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="28"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="27"/>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="28"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="27"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="28"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="27"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="28"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="27"/>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="28"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="27"/>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="28"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="27"/>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="28"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="27"/>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="28"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="27"/>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="28"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="27"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="28"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="27"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="28"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="27"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D69" s="9"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D70" s="9"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D71" s="9"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D72" s="9"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="28"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="27"/>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="28"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="27"/>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="28"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="27"/>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="28"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="27"/>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="28"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="27"/>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="28"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="27"/>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="28"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="27"/>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="28"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="27"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="28"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="27"/>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D86" s="9"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D87" s="9"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D88" s="9"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D89" s="9"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D90" s="9"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D91" s="9"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D92" s="9"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D93" s="9"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D94" s="9"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D95" s="9"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D96" s="9"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D97" s="9"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D98" s="9"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D99" s="9"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D100" s="9"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D101" s="9"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D102" s="9"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D103" s="9"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D104" s="9"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D105" s="9"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D106" s="9"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
       <c r="I106" s="3"/>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D107" s="9"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D108" s="9"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D109" s="9"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D110" s="9"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D111" s="9"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
       <c r="I111" s="3"/>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D112" s="9"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D113" s="9"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D114" s="9"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
       <c r="I114" s="3"/>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D115" s="9"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
       <c r="I115" s="3"/>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D116" s="9"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
       <c r="I116" s="3"/>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D117" s="9"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D118" s="9"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D119" s="9"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
       <c r="I119" s="3"/>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D120" s="9"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
       <c r="I120" s="3"/>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D121" s="9"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D122" s="9"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D123" s="9"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D124" s="9"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
       <c r="I124" s="3"/>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D125" s="9"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
       <c r="I125" s="3"/>
     </row>
     <row r="126" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D126" s="36"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D127" s="36"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D128" s="36"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D129" s="36"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D130" s="36"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D131" s="36"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D132" s="36"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="28"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D133" s="36"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D134" s="36"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D135" s="36"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D136" s="36"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D137" s="36"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D138" s="36"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D139" s="36"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
       <c r="I139" s="3"/>
     </row>
     <row r="140" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D140" s="36"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D141" s="36"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D142" s="36"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D143" s="36"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D144" s="36"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="28"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D145" s="36"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
       <c r="I145" s="3"/>
     </row>
     <row r="146" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D146" s="36"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D147" s="36"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
       <c r="I147" s="3"/>
     </row>
     <row r="148" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D148" s="36"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
       <c r="I148" s="3"/>
     </row>
     <row r="149" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D149" s="36"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
       <c r="I149" s="3"/>
     </row>
     <row r="150" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D150" s="36"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
       <c r="I150" s="3"/>
     </row>
     <row r="151" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D151" s="36"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="28"/>
-      <c r="H151" s="28"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
       <c r="I151" s="3"/>
     </row>
     <row r="152" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D152" s="36"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="28"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
       <c r="I152" s="3"/>
     </row>
     <row r="153" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D153" s="36"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="28"/>
-      <c r="G153" s="28"/>
-      <c r="H153" s="28"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
       <c r="I153" s="3"/>
     </row>
     <row r="154" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D154" s="36"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="28"/>
-      <c r="G154" s="28"/>
-      <c r="H154" s="28"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
       <c r="I154" s="3"/>
     </row>
     <row r="155" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D155" s="36"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="28"/>
-      <c r="G155" s="28"/>
-      <c r="H155" s="28"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D156" s="36"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="28"/>
-      <c r="H156" s="28"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
       <c r="I156" s="3"/>
     </row>
     <row r="157" spans="4:9" x14ac:dyDescent="0.3">
@@ -2452,25 +2467,25 @@
   <hyperlinks>
     <hyperlink ref="M24" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>
-    <hyperlink ref="I27" r:id="rId3" xr:uid="{DA931C00-4127-445C-A5B3-425638471C29}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{D72C5436-2E84-4565-9780-921668693B3C}"/>
-    <hyperlink ref="I9" r:id="rId5" xr:uid="{60D84BF8-42F9-4BED-A3F0-F972DC340F84}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{D72C5436-2E84-4565-9780-921668693B3C}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{60D84BF8-42F9-4BED-A3F0-F972DC340F84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D3:J16"/>
+  <dimension ref="C3:J16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="24.44140625" customWidth="1"/>
     <col min="6" max="6" width="32.5546875" customWidth="1"/>
     <col min="7" max="7" width="49.77734375" customWidth="1"/>
@@ -2479,199 +2494,231 @@
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="4:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="3:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>19</v>
+      <c r="I5" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
       <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="37" t="s">
-        <v>96</v>
+      <c r="E6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="19"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="37" t="s">
-        <v>88</v>
+      <c r="E7" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="19"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" s="13">
         <v>3</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="36" t="s">
+        <v>88</v>
+      </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I8" s="19"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="13">
         <v>4</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="37" t="s">
-        <v>100</v>
+      <c r="E9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I9" s="19"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" s="14">
         <v>5</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="38" t="s">
-        <v>89</v>
+      <c r="E10" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="H10" s="14"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I10" s="19"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D11" s="14">
         <v>6</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="38" t="s">
-        <v>106</v>
+      <c r="E11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="19"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
       <c r="D12" s="14">
         <v>7</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="38" t="s">
-        <v>103</v>
+      <c r="E12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="H12" s="14"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I12" s="19"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D13" s="14">
         <v>8</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="38" t="s">
-        <v>101</v>
+      <c r="E13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="37" t="s">
+        <v>75</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I13" s="19"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
       <c r="D14" s="14">
         <v>9</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="38" t="s">
-        <v>95</v>
+      <c r="E14" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I14" s="19"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
       <c r="D15" s="14">
         <v>10</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E15" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D16" s="14">
         <v>11</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="E16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2685,6 +2732,7 @@
     <hyperlink ref="G14" r:id="rId7" xr:uid="{2BF07192-3F6D-497F-B45F-5F9B8341D428}"/>
     <hyperlink ref="G10" r:id="rId8" xr:uid="{90CB7BC4-9217-4681-9304-C0DC968A4BD8}"/>
     <hyperlink ref="G7" r:id="rId9" xr:uid="{89CBECDF-288D-4F5C-9966-A4E17BACA3C8}"/>
+    <hyperlink ref="G8" r:id="rId10" xr:uid="{361C96C8-5218-499C-8402-A162AC6D63AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2694,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A3B35A-D8AC-47FF-919D-F2263980152C}">
   <dimension ref="E8:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2711,309 +2759,165 @@
   </cols>
   <sheetData>
     <row r="8" spans="5:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="I8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="L8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="9" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="23">
-        <v>1</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="23">
-        <v>9</v>
-      </c>
-      <c r="H9" s="23">
-        <v>7</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="23">
-        <v>2</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="23">
-        <v>6</v>
-      </c>
-      <c r="H10" s="23">
-        <v>5</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="5:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="23">
-        <v>3</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="23">
-        <v>9</v>
-      </c>
-      <c r="H11" s="23">
-        <v>8</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E12" s="23">
-        <v>4</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E13" s="23">
-        <v>5</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E14" s="23">
-        <v>6</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="E15" s="23">
-        <v>7</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="23">
-        <v>10</v>
-      </c>
-      <c r="H15" s="23">
-        <v>9</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E15" s="22"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E16" s="23">
-        <v>8</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E17" s="23">
-        <v>9</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-2 Mar 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB03B87-FE96-46A7-8DC6-402120012460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA58C0B-CE20-431E-89D7-80B863751AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
   <si>
     <t>Concepts</t>
   </si>
@@ -330,6 +330,27 @@
   </si>
   <si>
     <t>pending with few</t>
+  </si>
+  <si>
+    <t>assignment status,String,StrignBuffer,StringBuilder</t>
+  </si>
+  <si>
+    <t>String Tasks</t>
+  </si>
+  <si>
+    <t>Revision of variables and datatypes and methods,execution flow</t>
+  </si>
+  <si>
+    <t>OOPS Features</t>
+  </si>
+  <si>
+    <t>Inheritance levels,abstraction,abstract,concrete,abstract class,interface</t>
+  </si>
+  <si>
+    <t>abstraction practicals,MI</t>
+  </si>
+  <si>
+    <t>polymorphisam,overloading,overriding,access modifiers</t>
   </si>
 </sst>
 </file>
@@ -935,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,19 +1260,33 @@
       <c r="D20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="27"/>
+      <c r="E20" s="10">
+        <v>45397</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>102</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="32"/>
+      <c r="E21" s="10">
+        <v>45398</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="H21" s="27"/>
       <c r="I21" s="3"/>
     </row>
@@ -1259,9 +1294,15 @@
       <c r="D22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="32"/>
+      <c r="E22" s="10">
+        <v>45404</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="H22" s="27"/>
       <c r="I22" s="3"/>
     </row>
@@ -1269,9 +1310,15 @@
       <c r="D23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="32"/>
+      <c r="E23" s="10">
+        <v>45405</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="H23" s="27"/>
       <c r="I23" s="6"/>
     </row>
@@ -1279,9 +1326,15 @@
       <c r="D24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="32"/>
+      <c r="E24" s="10">
+        <v>45406</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="H24" s="27"/>
       <c r="I24" s="3"/>
       <c r="M24" s="5" t="s">
@@ -1292,9 +1345,15 @@
       <c r="D25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="32"/>
+      <c r="E25" s="10">
+        <v>45407</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="H25" s="27"/>
       <c r="I25" s="3"/>
       <c r="M25" s="5"/>
@@ -2742,7 +2801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A3B35A-D8AC-47FF-919D-F2263980152C}">
   <dimension ref="E8:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:L18"/>
     </sheetView>
   </sheetViews>
